--- a/results/comparison_50_15_15.xlsx
+++ b/results/comparison_50_15_15.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Filename</t>
   </si>
@@ -53,9 +53,18 @@
     <t>0_data</t>
   </si>
   <si>
+    <t>55363.64617</t>
+  </si>
+  <si>
+    <t>5762.007400</t>
+  </si>
+  <si>
     <t>1_data</t>
   </si>
   <si>
+    <t>496.0507246</t>
+  </si>
+  <si>
     <t>2_data</t>
   </si>
   <si>
@@ -69,6 +78,9 @@
   </si>
   <si>
     <t>6_data</t>
+  </si>
+  <si>
+    <t>493.4363636</t>
   </si>
 </sst>
 </file>
@@ -81,7 +93,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +104,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,155 +571,167 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,18 +1082,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33.3274336283186" customWidth="1"/>
-    <col min="2" max="2" width="28.4778761061947" customWidth="1"/>
-    <col min="3" max="3" width="26.3628318584071" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.3716814159292" customWidth="1"/>
-    <col min="6" max="6" width="22.5752212389381" customWidth="1"/>
-    <col min="7" max="7" width="19.3274336283186" customWidth="1"/>
+    <col min="1" max="1" width="20.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="21.0530973451327" customWidth="1"/>
+    <col min="3" max="3" width="20.5840707964602" customWidth="1"/>
+    <col min="4" max="4" width="19.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="18.2654867256637" customWidth="1"/>
+    <col min="6" max="6" width="20.1858407079646" customWidth="1"/>
+    <col min="7" max="7" width="18.858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1112,8 +1129,8 @@
       <c r="C2">
         <v>11648.26</v>
       </c>
-      <c r="D2">
-        <v>65363.6461761245</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
         <v>485.450980392157</v>
@@ -1121,36 +1138,36 @@
       <c r="F2">
         <v>358.5</v>
       </c>
-      <c r="G2">
-        <v>8762.00740099962</v>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>12459.9044444444</v>
+        <v>12108.9756521739</v>
       </c>
       <c r="C3">
-        <v>11849.18</v>
+        <v>11707.73</v>
       </c>
       <c r="D3">
-        <v>75235.8574987653</v>
-      </c>
-      <c r="E3">
-        <v>515.648148148148</v>
+        <v>42669.3391492123</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>402.5</v>
+        <v>362.5</v>
       </c>
       <c r="G3">
-        <v>11346.2743484225</v>
+        <v>5523.20394875026</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>12593.968372093</v>
@@ -1173,7 +1190,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>12512.8639393939</v>
@@ -1196,7 +1213,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>12619.6634615385</v>
@@ -1219,7 +1236,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>12559.9653846154</v>
@@ -1242,25 +1259,25 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>12623.1974193548</v>
+        <v>12078.9518181818</v>
       </c>
       <c r="C8">
-        <v>12212.15</v>
+        <v>11665.5</v>
       </c>
       <c r="D8">
-        <v>37321.9275739855</v>
-      </c>
-      <c r="E8">
-        <v>496.790322580645</v>
+        <v>55491.8769785123</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>393.5</v>
+        <v>370.5</v>
       </c>
       <c r="G8">
-        <v>7573.88345473465</v>
+        <v>5198.94595041322</v>
       </c>
     </row>
   </sheetData>
